--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il10</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.17608520471138</v>
+        <v>37.63846333333333</v>
       </c>
       <c r="H2">
-        <v>6.17608520471138</v>
+        <v>112.91539</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9976844064794065</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9976844064794066</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.1183428902721</v>
+        <v>81.038515</v>
       </c>
       <c r="N2">
-        <v>36.1183428902721</v>
+        <v>243.115545</v>
       </c>
       <c r="O2">
-        <v>0.6890960666293078</v>
+        <v>0.8313546010859307</v>
       </c>
       <c r="P2">
-        <v>0.6890960666293078</v>
+        <v>0.8313546010859306</v>
       </c>
       <c r="Q2">
-        <v>223.069963143302</v>
+        <v>3050.165175415284</v>
       </c>
       <c r="R2">
-        <v>223.069963143302</v>
+        <v>27451.48657873755</v>
       </c>
       <c r="S2">
-        <v>0.6890960666293078</v>
+        <v>0.8294295217583405</v>
       </c>
       <c r="T2">
-        <v>0.6890960666293078</v>
+        <v>0.8294295217583405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.17608520471138</v>
+        <v>37.63846333333333</v>
       </c>
       <c r="H3">
-        <v>6.17608520471138</v>
+        <v>112.91539</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9976844064794065</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9976844064794066</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.8353278983107</v>
+        <v>12.88200833333333</v>
       </c>
       <c r="N3">
-        <v>12.8353278983107</v>
+        <v>38.646025</v>
       </c>
       <c r="O3">
-        <v>0.2448831607666453</v>
+        <v>0.1321534198787326</v>
       </c>
       <c r="P3">
-        <v>0.2448831607666453</v>
+        <v>0.1321534198787326</v>
       </c>
       <c r="Q3">
-        <v>79.27207873037592</v>
+        <v>484.8589983138611</v>
       </c>
       <c r="R3">
-        <v>79.27207873037592</v>
+        <v>4363.730984824751</v>
       </c>
       <c r="S3">
-        <v>0.2448831607666453</v>
+        <v>0.1318474062759371</v>
       </c>
       <c r="T3">
-        <v>0.2448831607666453</v>
+        <v>0.1318474062759371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>37.63846333333333</v>
+      </c>
+      <c r="H4">
+        <v>112.91539</v>
+      </c>
+      <c r="I4">
+        <v>0.9976844064794065</v>
+      </c>
+      <c r="J4">
+        <v>0.9976844064794066</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.557153333333333</v>
+      </c>
+      <c r="N4">
+        <v>10.67146</v>
+      </c>
+      <c r="O4">
+        <v>0.03649197903533674</v>
+      </c>
+      <c r="P4">
+        <v>0.03649197903533673</v>
+      </c>
+      <c r="Q4">
+        <v>133.8857853077111</v>
+      </c>
+      <c r="R4">
+        <v>1204.9720677694</v>
+      </c>
+      <c r="S4">
+        <v>0.03640747844512888</v>
+      </c>
+      <c r="T4">
+        <v>0.03640747844512888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08735766666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.262073</v>
+      </c>
+      <c r="I5">
+        <v>0.002315593520593406</v>
+      </c>
+      <c r="J5">
+        <v>0.002315593520593406</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>81.038515</v>
+      </c>
+      <c r="N5">
+        <v>243.115545</v>
+      </c>
+      <c r="O5">
+        <v>0.8313546010859307</v>
+      </c>
+      <c r="P5">
+        <v>0.8313546010859306</v>
+      </c>
+      <c r="Q5">
+        <v>7.079335580531667</v>
+      </c>
+      <c r="R5">
+        <v>63.714020224785</v>
+      </c>
+      <c r="S5">
+        <v>0.001925079327590097</v>
+      </c>
+      <c r="T5">
+        <v>0.001925079327590097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6.17608520471138</v>
-      </c>
-      <c r="H4">
-        <v>6.17608520471138</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.46041868219863</v>
-      </c>
-      <c r="N4">
-        <v>3.46041868219863</v>
-      </c>
-      <c r="O4">
-        <v>0.0660207726040469</v>
-      </c>
-      <c r="P4">
-        <v>0.0660207726040469</v>
-      </c>
-      <c r="Q4">
-        <v>21.37184062523381</v>
-      </c>
-      <c r="R4">
-        <v>21.37184062523381</v>
-      </c>
-      <c r="S4">
-        <v>0.0660207726040469</v>
-      </c>
-      <c r="T4">
-        <v>0.0660207726040469</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.08735766666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.262073</v>
+      </c>
+      <c r="I6">
+        <v>0.002315593520593406</v>
+      </c>
+      <c r="J6">
+        <v>0.002315593520593406</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>12.88200833333333</v>
+      </c>
+      <c r="N6">
+        <v>38.646025</v>
+      </c>
+      <c r="O6">
+        <v>0.1321534198787326</v>
+      </c>
+      <c r="P6">
+        <v>0.1321534198787326</v>
+      </c>
+      <c r="Q6">
+        <v>1.125342189980556</v>
+      </c>
+      <c r="R6">
+        <v>10.128079709825</v>
+      </c>
+      <c r="S6">
+        <v>0.000306013602795453</v>
+      </c>
+      <c r="T6">
+        <v>0.000306013602795453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08735766666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.262073</v>
+      </c>
+      <c r="I7">
+        <v>0.002315593520593406</v>
+      </c>
+      <c r="J7">
+        <v>0.002315593520593406</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.557153333333333</v>
+      </c>
+      <c r="N7">
+        <v>10.67146</v>
+      </c>
+      <c r="O7">
+        <v>0.03649197903533674</v>
+      </c>
+      <c r="P7">
+        <v>0.03649197903533673</v>
+      </c>
+      <c r="Q7">
+        <v>0.3107446151755556</v>
+      </c>
+      <c r="R7">
+        <v>2.79670153658</v>
+      </c>
+      <c r="S7">
+        <v>8.450059020785619E-05</v>
+      </c>
+      <c r="T7">
+        <v>8.450059020785616E-05</v>
       </c>
     </row>
   </sheetData>
